--- a/backend/src/test/resources/from.xlsx
+++ b/backend/src/test/resources/from.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\kotlin\AlfaConverter\converter\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\kotlin\AlfaConverter\backend\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB9B558-E6F2-46E4-AEEE-329871B64896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C03E9C-2373-431E-9ACC-AD45C24E5CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8895" yWindow="2145" windowWidth="15525" windowHeight="10965" xr2:uid="{4FFCCFEC-BF92-4A12-94D8-B011486D6CEA}"/>
+    <workbookView xWindow="-18150" yWindow="240" windowWidth="17595" windowHeight="10965" xr2:uid="{4FFCCFEC-BF92-4A12-94D8-B011486D6CEA}"/>
   </bookViews>
   <sheets>
     <sheet name="исходный формат" sheetId="2" r:id="rId1"/>
@@ -92,13 +92,13 @@
     <t>Адрес прописки пациента</t>
   </si>
   <si>
-    <t>Возвраст пациента</t>
-  </si>
-  <si>
     <t>Дата рождения</t>
   </si>
   <si>
     <t>ФИО</t>
+  </si>
+  <si>
+    <t>Возраст пациента</t>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,13 +471,13 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
       </c>
       <c r="D1" t="s">
         <v>17</v>
